--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Epha4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H2">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I2">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J2">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.48556067080587</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N2">
-        <v>7.48556067080587</v>
+        <v>23.519992</v>
       </c>
       <c r="O2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q2">
-        <v>8.187872532826585</v>
+        <v>8.943887251193777</v>
       </c>
       <c r="R2">
-        <v>8.187872532826585</v>
+        <v>80.494985260744</v>
       </c>
       <c r="S2">
-        <v>0.1948163140367214</v>
+        <v>0.1838387303386603</v>
       </c>
       <c r="T2">
-        <v>0.1948163140367214</v>
+        <v>0.1838387303386603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H3">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I3">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J3">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1790713620364</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N3">
-        <v>11.1790713620364</v>
+        <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q3">
-        <v>12.22791656805475</v>
+        <v>13.20427554862055</v>
       </c>
       <c r="R3">
-        <v>12.22791656805475</v>
+        <v>118.838479937585</v>
       </c>
       <c r="S3">
-        <v>0.2909421983044245</v>
+        <v>0.2714096436732493</v>
       </c>
       <c r="T3">
-        <v>0.2909421983044245</v>
+        <v>0.2714096436732493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H4">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I4">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J4">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4779193315584</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N4">
-        <v>0.4779193315584</v>
+        <v>0.134471</v>
       </c>
       <c r="O4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q4">
-        <v>0.5227587805193207</v>
+        <v>0.05113494352188889</v>
       </c>
       <c r="R4">
-        <v>0.5227587805193207</v>
+        <v>0.460214491697</v>
       </c>
       <c r="S4">
-        <v>0.01243814413851751</v>
+        <v>0.001051062343361766</v>
       </c>
       <c r="T4">
-        <v>0.01243814413851751</v>
+        <v>0.001051062343361766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.935991804886247</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H5">
-        <v>0.935991804886247</v>
+        <v>3.422407</v>
       </c>
       <c r="I5">
-        <v>0.4263105854562125</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J5">
-        <v>0.4263105854562125</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.48556067080587</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N5">
-        <v>7.48556067080587</v>
+        <v>1.457465</v>
       </c>
       <c r="O5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q5">
-        <v>7.006423442853092</v>
+        <v>0.5542264909172222</v>
       </c>
       <c r="R5">
-        <v>7.006423442853092</v>
+        <v>4.988038418255</v>
       </c>
       <c r="S5">
-        <v>0.1667057693246608</v>
+        <v>0.01139194754458401</v>
       </c>
       <c r="T5">
-        <v>0.1667057693246608</v>
+        <v>0.01139194754458401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H6">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I6">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J6">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1790713620364</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N6">
-        <v>11.1790713620364</v>
+        <v>23.519992</v>
       </c>
       <c r="O6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q6">
-        <v>10.4635191811046</v>
+        <v>7.998827839309333</v>
       </c>
       <c r="R6">
-        <v>10.4635191811046</v>
+        <v>71.989450553784</v>
       </c>
       <c r="S6">
-        <v>0.2489614036543412</v>
+        <v>0.1644133376099844</v>
       </c>
       <c r="T6">
-        <v>0.2489614036543412</v>
+        <v>0.1644133376099844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H7">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I7">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J7">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4779193315584</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N7">
-        <v>0.4779193315584</v>
+        <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q7">
-        <v>0.4473285777353755</v>
+        <v>11.80904050888167</v>
       </c>
       <c r="R7">
-        <v>0.4473285777353755</v>
+        <v>106.281364579935</v>
       </c>
       <c r="S7">
-        <v>0.01064341247721041</v>
+        <v>0.2427310354768667</v>
       </c>
       <c r="T7">
-        <v>0.01064341247721041</v>
+        <v>0.2427310354768667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.165749116458517</v>
+        <v>1.020259</v>
       </c>
       <c r="H8">
-        <v>0.165749116458517</v>
+        <v>3.060777</v>
       </c>
       <c r="I8">
-        <v>0.07549275806412414</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J8">
-        <v>0.07549275806412414</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>7.48556067080587</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N8">
-        <v>7.48556067080587</v>
+        <v>0.134471</v>
       </c>
       <c r="O8">
-        <v>0.3910429977859032</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P8">
-        <v>0.3910429977859032</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q8">
-        <v>1.240725067382697</v>
+        <v>0.04573174932966667</v>
       </c>
       <c r="R8">
-        <v>1.240725067382697</v>
+        <v>0.411585743967</v>
       </c>
       <c r="S8">
-        <v>0.02952091442452102</v>
+        <v>0.0009400014218436896</v>
       </c>
       <c r="T8">
-        <v>0.02952091442452102</v>
+        <v>0.0009400014218436896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.165749116458517</v>
+        <v>1.020259</v>
       </c>
       <c r="H9">
-        <v>0.165749116458517</v>
+        <v>3.060777</v>
       </c>
       <c r="I9">
-        <v>0.07549275806412414</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J9">
-        <v>0.07549275806412414</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.1790713620364</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N9">
-        <v>11.1790713620364</v>
+        <v>1.457465</v>
       </c>
       <c r="O9">
-        <v>0.583990668183661</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P9">
-        <v>0.583990668183661</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q9">
-        <v>1.852921201084244</v>
+        <v>0.4956639278116667</v>
       </c>
       <c r="R9">
-        <v>1.852921201084244</v>
+        <v>4.460975350305</v>
       </c>
       <c r="S9">
-        <v>0.04408706622489532</v>
+        <v>0.0101882128658775</v>
       </c>
       <c r="T9">
-        <v>0.04408706622489532</v>
+        <v>0.0101882128658775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.207213</v>
+      </c>
+      <c r="I10">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="J10">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.839997333333334</v>
+      </c>
+      <c r="N10">
+        <v>23.519992</v>
+      </c>
+      <c r="O10">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="P10">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="Q10">
+        <v>0.5415164558106668</v>
+      </c>
+      <c r="R10">
+        <v>4.873648102296</v>
+      </c>
+      <c r="S10">
+        <v>0.01113069685448424</v>
+      </c>
+      <c r="T10">
+        <v>0.01113069685448424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.207213</v>
+      </c>
+      <c r="I11">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="J11">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N11">
+        <v>34.723655</v>
+      </c>
+      <c r="O11">
+        <v>0.5803178185796234</v>
+      </c>
+      <c r="P11">
+        <v>0.5803178185796235</v>
+      </c>
+      <c r="Q11">
+        <v>0.7994658581683334</v>
+      </c>
+      <c r="R11">
+        <v>7.195192723515</v>
+      </c>
+      <c r="S11">
+        <v>0.01643276398583366</v>
+      </c>
+      <c r="T11">
+        <v>0.01643276398583366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.207213</v>
+      </c>
+      <c r="I12">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="J12">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.134471</v>
+      </c>
+      <c r="O12">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P12">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q12">
+        <v>0.003096015480333334</v>
+      </c>
+      <c r="R12">
+        <v>0.027864139323</v>
+      </c>
+      <c r="S12">
+        <v>6.363760398895329E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.363760398895329E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.207213</v>
+      </c>
+      <c r="I13">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="J13">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.457465</v>
+      </c>
+      <c r="O13">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P13">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q13">
+        <v>0.03355618833833333</v>
+      </c>
+      <c r="R13">
+        <v>0.302005695045</v>
+      </c>
+      <c r="S13">
+        <v>0.000689736675549076</v>
+      </c>
+      <c r="T13">
+        <v>0.000689736675549076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.165749116458517</v>
-      </c>
-      <c r="H10">
-        <v>0.165749116458517</v>
-      </c>
-      <c r="I10">
-        <v>0.07549275806412414</v>
-      </c>
-      <c r="J10">
-        <v>0.07549275806412414</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4779193315584</v>
-      </c>
-      <c r="N10">
-        <v>0.4779193315584</v>
-      </c>
-      <c r="O10">
-        <v>0.02496633403043571</v>
-      </c>
-      <c r="P10">
-        <v>0.02496633403043571</v>
-      </c>
-      <c r="Q10">
-        <v>0.07921470694424984</v>
-      </c>
-      <c r="R10">
-        <v>0.07921470694424984</v>
-      </c>
-      <c r="S10">
-        <v>0.001884777414707792</v>
-      </c>
-      <c r="T10">
-        <v>0.001884777414707792</v>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.209088</v>
+      </c>
+      <c r="H14">
+        <v>0.627264</v>
+      </c>
+      <c r="I14">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J14">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.839997333333334</v>
+      </c>
+      <c r="N14">
+        <v>23.519992</v>
+      </c>
+      <c r="O14">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="P14">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="Q14">
+        <v>1.639249362432</v>
+      </c>
+      <c r="R14">
+        <v>14.753244261888</v>
+      </c>
+      <c r="S14">
+        <v>0.03369424424013551</v>
+      </c>
+      <c r="T14">
+        <v>0.03369424424013551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.209088</v>
+      </c>
+      <c r="H15">
+        <v>0.627264</v>
+      </c>
+      <c r="I15">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J15">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N15">
+        <v>34.723655</v>
+      </c>
+      <c r="O15">
+        <v>0.5803178185796234</v>
+      </c>
+      <c r="P15">
+        <v>0.5803178185796235</v>
+      </c>
+      <c r="Q15">
+        <v>2.42009985888</v>
+      </c>
+      <c r="R15">
+        <v>21.78089872992</v>
+      </c>
+      <c r="S15">
+        <v>0.04974437544367372</v>
+      </c>
+      <c r="T15">
+        <v>0.04974437544367373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.209088</v>
+      </c>
+      <c r="H16">
+        <v>0.627264</v>
+      </c>
+      <c r="I16">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J16">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.134471</v>
+      </c>
+      <c r="O16">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P16">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q16">
+        <v>0.009372090816000002</v>
+      </c>
+      <c r="R16">
+        <v>0.08434881734400002</v>
+      </c>
+      <c r="S16">
+        <v>0.0001926403171061989</v>
+      </c>
+      <c r="T16">
+        <v>0.0001926403171061989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.209088</v>
+      </c>
+      <c r="H17">
+        <v>0.627264</v>
+      </c>
+      <c r="I17">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J17">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.457465</v>
+      </c>
+      <c r="O17">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P17">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q17">
+        <v>0.10157948064</v>
+      </c>
+      <c r="R17">
+        <v>0.9142153257600001</v>
+      </c>
+      <c r="S17">
+        <v>0.002087933604800933</v>
+      </c>
+      <c r="T17">
+        <v>0.002087933604800933</v>
       </c>
     </row>
   </sheetData>
